--- a/School Management Design.xlsx
+++ b/School Management Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lang Trans" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="241">
   <si>
     <t>Section</t>
   </si>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2083,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2274,7 +2274,7 @@
         <v>Capacity</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" ref="I5:I9" si="3">"'"&amp;A7&amp;"'"</f>
+        <f t="shared" ref="I7:I9" si="3">"'"&amp;A7&amp;"'"</f>
         <v>'capacity'</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -2519,7 +2519,7 @@
         <v>142</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H5:H15" si="1">TRIM(PROPER(A6))</f>
+        <f t="shared" ref="H6:H15" si="1">TRIM(PROPER(A6))</f>
         <v>Course_Id</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -3004,7 +3004,7 @@
         <v>'School',</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f t="shared" ref="L5:L15" si="0">"'"&amp;B5&amp;"',"</f>
+        <f t="shared" ref="L5:L13" si="0">"'"&amp;B5&amp;"',"</f>
         <v>'โรงเรียน',</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
         <v>216</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H15" si="1">TRIM(PROPER(A6))</f>
+        <f t="shared" ref="H6:H13" si="1">TRIM(PROPER(A6))</f>
         <v>Student_Subscription_Id</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -3036,7 +3036,7 @@
         <v>238</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K15" si="2">"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H6,"_"," "),"Id",""))&amp;"',"</f>
+        <f t="shared" ref="K6:K13" si="2">"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H6,"_"," "),"Id",""))&amp;"',"</f>
         <v>'Student Subscription',</v>
       </c>
       <c r="L6" s="1" t="str">
@@ -3272,7 +3272,7 @@
         <v>Comment</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" ref="I13:I15" si="4">"'"&amp;A13&amp;"'"</f>
+        <f t="shared" ref="I13" si="4">"'"&amp;A13&amp;"'"</f>
         <v>'comment'</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -3584,22 +3584,22 @@
         <v>212</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H11" si="4">TRIM(PROPER(A10))</f>
+        <f t="shared" ref="H10" si="4">TRIM(PROPER(A10))</f>
         <v>Comment</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f t="shared" ref="I10:I11" si="5">"'"&amp;A10&amp;"'"</f>
+        <f t="shared" ref="I10" si="5">"'"&amp;A10&amp;"'"</f>
         <v>'comment'</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>238</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" ref="K10:K11" si="6">"'"&amp;H10&amp;"',"</f>
+        <f t="shared" ref="K10" si="6">"'"&amp;H10&amp;"',"</f>
         <v>'Comment',</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:L11" si="7">"'"&amp;B10&amp;"',"</f>
+        <f t="shared" ref="L10" si="7">"'"&amp;B10&amp;"',"</f>
         <v>'หมายเหตุ',</v>
       </c>
     </row>
@@ -4553,22 +4553,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1"/>
-    <col min="4" max="4" width="9.28515625" style="1"/>
-    <col min="5" max="5" width="7" style="1"/>
-    <col min="6" max="6" width="25" style="1"/>
-    <col min="7" max="1025" width="11.5703125" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -4598,8 +4600,17 @@
       <c r="G3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -4618,8 +4629,27 @@
       <c r="F4" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="str">
+        <f>TRIM(PROPER(A4))</f>
+        <v>Id</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>"'"&amp;A4&amp;"'"</f>
+        <v>'id '</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"'"&amp;H4&amp;"',"</f>
+        <v>'Id',</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"'"&amp;B4&amp;"',"</f>
+        <v>'ไอดี',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -4638,8 +4668,27 @@
       <c r="G5" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H11" si="0">TRIM(PROPER(A5))</f>
+        <v>Usercode</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"'"&amp;A5&amp;"'"</f>
+        <v>'usercode'</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K11" si="1">"'"&amp;H5&amp;"',"</f>
+        <v>'Usercode',</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L11" si="2">"'"&amp;B5&amp;"',"</f>
+        <v>'รหัส',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -4659,8 +4708,27 @@
       <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="str">
+        <f>TRIM(PROPER(A6))</f>
+        <v>Name</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"'"&amp;A6&amp;"'"</f>
+        <v>'name '</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Name',</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'ชื่อ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
@@ -4673,8 +4741,31 @@
       <c r="G7" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contact_Email</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I9" si="3">"'"&amp;A7&amp;"'"</f>
+        <v>'contact_email '</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Contact_Email',</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'อีเมล์',</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>"-&gt;nullable()"</f>
+        <v>-&gt;nullable()</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -4684,8 +4775,31 @@
       <c r="C8" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contact_Phone</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'contact_phone '</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Contact_Phone',</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'เบอร์ติดต่อ',</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>"-&gt;nullable()"</f>
+        <v>-&gt;nullable()</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -4695,8 +4809,31 @@
       <c r="C9" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Address</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'address '</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Address',</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'ที่อยู่',</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>"-&gt;nullable()"</f>
+        <v>-&gt;nullable()</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -4706,8 +4843,31 @@
       <c r="C10" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="str">
+        <f>TRIM(PROPER(A10))</f>
+        <v>Description</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>"'"&amp;A10&amp;"'"</f>
+        <v>'description'</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>"'"&amp;H10&amp;"',"</f>
+        <v>'Description',</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>"'"&amp;B10&amp;"',"</f>
+        <v>'รายละเอียด',</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>"-&gt;nullable()"</f>
+        <v>-&gt;nullable()</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -4722,6 +4882,25 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Status</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>"'"&amp;A11&amp;"'"</f>
+        <v>'status '</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Status',</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'สถานะ',</v>
       </c>
     </row>
   </sheetData>
@@ -5282,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/School Management Design.xlsx
+++ b/School Management Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lang Trans" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="242">
   <si>
     <t>Section</t>
   </si>
@@ -453,9 +453,6 @@
     <t>&gt;=now</t>
   </si>
   <si>
-    <t xml:space="preserve">loyalty_fee </t>
-  </si>
-  <si>
     <t>ค่าธรรมเนียม (%)</t>
   </si>
   <si>
@@ -760,6 +757,12 @@
   </si>
   <si>
     <t>แอคชั่น</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>loyalty_fee</t>
   </si>
 </sst>
 </file>
@@ -1138,23 +1141,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>TRIM(PROPER(A2))</f>
@@ -1165,7 +1168,7 @@
         <v>'action'</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>"'"&amp;C2&amp;"',"</f>
@@ -1289,13 +1292,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>132</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
@@ -1343,39 +1346,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1391,18 +1394,18 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>118</v>
@@ -1536,7 +1539,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>105</v>
@@ -1567,41 +1570,41 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1620,7 +1623,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>110</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>128</v>
@@ -1642,21 +1645,21 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>93</v>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>118</v>
@@ -1687,7 +1690,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>105</v>
@@ -1840,41 +1843,41 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1893,7 +1896,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>110</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>128</v>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>118</v>
@@ -1938,7 +1941,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -2035,12 +2038,12 @@
         <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
@@ -2066,7 +2069,7 @@
         <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2130,18 +2133,18 @@
         <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -2167,7 +2170,7 @@
         <v>'id'</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"'"&amp;H4&amp;"',"</f>
@@ -2180,7 +2183,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -2203,7 +2206,7 @@
         <v>'school_id'</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" ref="K5:K9" si="1">"'"&amp;H5&amp;"',"</f>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>102</v>
@@ -2242,7 +2245,7 @@
         <v>'name'</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2255,10 +2258,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>87</v>
@@ -2267,7 +2270,7 @@
         <v>132</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2281,7 @@
         <v>'capacity'</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2308,7 +2311,7 @@
         <v>'description'</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
@@ -2333,7 +2336,7 @@
         <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2344,7 +2347,7 @@
         <v>'status'</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2418,13 +2421,13 @@
         <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2455,7 +2458,7 @@
         <v>'id '</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H4,"_"," "),"Id",""))&amp;"',"</f>
@@ -2468,19 +2471,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>TRIM(PROPER(A5))</f>
@@ -2491,7 +2494,7 @@
         <v>'student_id'</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H5,"_"," "),"Id",""))&amp;"',"</f>
@@ -2504,19 +2507,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" ref="H6:H15" si="1">TRIM(PROPER(A6))</f>
@@ -2527,7 +2530,7 @@
         <v>'course_id'</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" ref="K6:K15" si="2">"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H6,"_"," "),"Id",""))&amp;"',"</f>
@@ -2540,10 +2543,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>136</v>
@@ -2555,7 +2558,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2566,7 +2569,7 @@
         <v>'registration_date'</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2602,7 +2605,7 @@
         <v>'main_teacher_id'</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2615,19 +2618,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2638,7 +2641,7 @@
         <v>'main_room_id'</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>115</v>
@@ -2663,7 +2666,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2674,7 +2677,7 @@
         <v>'day'</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2687,13 +2690,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>132</v>
@@ -2707,7 +2710,7 @@
         <v>'start_time'</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2720,13 +2723,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>132</v>
@@ -2740,7 +2743,7 @@
         <v>'cost'</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2753,13 +2756,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>132</v>
@@ -2773,7 +2776,7 @@
         <v>'saleprice'</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2786,13 +2789,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>132</v>
@@ -2806,7 +2809,7 @@
         <v>'discount'</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2819,19 +2822,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="1" t="str">
@@ -2843,7 +2846,7 @@
         <v>'status'</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2856,13 +2859,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2901,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2924,13 +2927,13 @@
         <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2961,7 +2964,7 @@
         <v>'id '</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H4,"_"," "),"Id",""))&amp;"',"</f>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -2997,7 +3000,7 @@
         <v>'school_id'</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H5,"_"," "),"Id",""))&amp;"',"</f>
@@ -3010,19 +3013,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" ref="H6:H13" si="1">TRIM(PROPER(A6))</f>
@@ -3033,7 +3036,7 @@
         <v>'student_subscription_id'</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" ref="K6:K13" si="2">"'"&amp;TRIM(SUBSTITUTE(SUBSTITUTE(H6,"_"," "),"Id",""))&amp;"',"</f>
@@ -3046,19 +3049,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3069,7 +3072,7 @@
         <v>'teacher_id'</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3082,19 +3085,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3105,7 +3108,7 @@
         <v>'room_id'</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3118,10 +3121,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>136</v>
@@ -3141,7 +3144,7 @@
         <v>'start_date'</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3154,10 +3157,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>136</v>
@@ -3177,7 +3180,7 @@
         <v>'end_date'</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3190,13 +3193,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>132</v>
@@ -3210,7 +3213,7 @@
         <v>'is_paid'</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>118</v>
@@ -3235,7 +3238,7 @@
         <v>132</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3246,7 +3249,7 @@
         <v>'status'</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3259,13 +3262,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3276,7 +3279,7 @@
         <v>'comment'</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3328,7 +3331,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3354,13 +3357,13 @@
         <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3391,7 +3394,7 @@
         <v>'id '</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"'"&amp;H4&amp;"',"</f>
@@ -3404,19 +3407,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" ref="H5:H9" si="0">TRIM(PROPER(A5))</f>
@@ -3427,7 +3430,7 @@
         <v>'student_subscription_id'</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" ref="K5:K9" si="1">"'"&amp;H5&amp;"',"</f>
@@ -3440,10 +3443,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>93</v>
@@ -3457,7 +3460,7 @@
         <v>'ref1'</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3470,10 +3473,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>93</v>
@@ -3487,7 +3490,7 @@
         <v>'ref2'</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3500,10 +3503,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>136</v>
@@ -3515,7 +3518,7 @@
         <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3526,7 +3529,7 @@
         <v>'payment_date'</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3539,7 +3542,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
@@ -3551,7 +3554,7 @@
         <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3562,7 +3565,7 @@
         <v>'status'</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3575,13 +3578,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" ref="H10" si="4">TRIM(PROPER(A10))</f>
@@ -3592,7 +3595,7 @@
         <v>'comment'</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" ref="K10" si="6">"'"&amp;H10&amp;"',"</f>
@@ -3636,7 +3639,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3684,7 +3687,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>67</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>87</v>
@@ -3788,7 +3791,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -3805,13 +3808,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>132</v>
@@ -3822,13 +3825,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>132</v>
@@ -4553,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4601,13 +4604,13 @@
         <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4638,7 +4641,7 @@
         <v>'id '</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"'"&amp;H4&amp;"',"</f>
@@ -4677,7 +4680,7 @@
         <v>'usercode'</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" ref="K5:K11" si="1">"'"&amp;H5&amp;"',"</f>
@@ -4717,7 +4720,7 @@
         <v>'name '</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4750,7 +4753,7 @@
         <v>'contact_email '</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4784,7 +4787,7 @@
         <v>'contact_phone '</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4818,7 +4821,7 @@
         <v>'address '</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4852,7 +4855,7 @@
         <v>'description'</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>"'"&amp;H10&amp;"',"</f>
@@ -4892,7 +4895,7 @@
         <v>'status '</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4915,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK7"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4930,10 +4933,12 @@
     <col min="5" max="5" width="13.5703125" style="1"/>
     <col min="6" max="6" width="11.5703125" style="1"/>
     <col min="7" max="7" width="15.5703125" style="1"/>
-    <col min="8" max="1025" width="11.5703125" style="1"/>
+    <col min="8" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -4941,7 +4946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -4963,8 +4968,17 @@
       <c r="G3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -4983,10 +4997,29 @@
       <c r="F4" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="str">
+        <f>TRIM(PROPER(A4))</f>
+        <v>Id</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>"'"&amp;A4&amp;"'"</f>
+        <v>'id '</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"'"&amp;H4&amp;"',"</f>
+        <v>'Id',</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"'"&amp;B4&amp;"',"</f>
+        <v>'ไอดี',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -5000,10 +5033,29 @@
       <c r="E5" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H11" si="0">TRIM(PROPER(A5))</f>
+        <v>School_Id</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"'"&amp;A5&amp;"'"</f>
+        <v>'school_id'</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K11" si="1">"'"&amp;H5&amp;"',"</f>
+        <v>'School_Id',</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L11" si="2">"'"&amp;B5&amp;"',"</f>
+        <v>'โรงเรียน',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>135</v>
@@ -5017,13 +5069,32 @@
       <c r="G6" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="str">
+        <f>TRIM(PROPER(A6))</f>
+        <v>Effective_Date</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"'"&amp;A6&amp;"'"</f>
+        <v>'effective_date'</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Effective_Date',</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'วันที่มีผล',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>87</v>
@@ -5033,8 +5104,39 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>TRIM(PROPER(A7))</f>
+        <v>Loyalty_Fee</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I9" si="3">"'"&amp;A7&amp;"'"</f>
+        <v>'loyalty_fee'</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Loyalty_Fee',</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'ค่าธรรมเนียม (%)',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="J11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5135,7 +5237,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -5147,7 +5249,7 @@
         <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5200,7 +5302,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5248,7 +5350,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -5260,7 +5362,7 @@
         <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5283,20 +5385,20 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5435,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5393,7 +5495,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -5405,7 +5507,7 @@
         <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -5430,13 +5532,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>132</v>
@@ -5444,7 +5546,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5631,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>102</v>
@@ -5560,7 +5662,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>

--- a/School Management Design.xlsx
+++ b/School Management Design.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Section" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="users" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="schools" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="school_loyalty_fee_history" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="school_courses" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="school_course_cost_history" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="school_course_saleprice_history" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="course_categories" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="courses" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="students" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="teachers" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="teacher_courses" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="rooms" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="student_subscriptions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="student_subscription_classes" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="student_subscription_payments" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="student_subscription_payment_details" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="holidays" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Section" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="schools" sheetId="3" r:id="rId3"/>
+    <sheet name="school_loyalty_fee_history" sheetId="4" r:id="rId4"/>
+    <sheet name="school_courses" sheetId="5" r:id="rId5"/>
+    <sheet name="school_course_cost_history" sheetId="6" r:id="rId6"/>
+    <sheet name="school_course_saleprice_history" sheetId="7" r:id="rId7"/>
+    <sheet name="course_categories" sheetId="8" r:id="rId8"/>
+    <sheet name="courses" sheetId="9" r:id="rId9"/>
+    <sheet name="students" sheetId="10" r:id="rId10"/>
+    <sheet name="teachers" sheetId="11" r:id="rId11"/>
+    <sheet name="teacher_courses" sheetId="12" r:id="rId12"/>
+    <sheet name="rooms" sheetId="13" r:id="rId13"/>
+    <sheet name="student_subscriptions" sheetId="14" r:id="rId14"/>
+    <sheet name="student_subscription_classes" sheetId="15" r:id="rId15"/>
+    <sheet name="student_subscription_payments" sheetId="16" r:id="rId16"/>
+    <sheet name="student_subscription_payment_de" sheetId="17" r:id="rId17"/>
+    <sheet name="holidays" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -37,141 +37,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="238">
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เข้าสู่ระบบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ออกจากระบบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หน้าหลัก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schools Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โรงเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="242">
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Admin Page</t>
+  </si>
+  <si>
+    <t>Log-in</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>Log-out</t>
+  </si>
+  <si>
+    <t>ออกจากระบบ</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>หน้าหลัก</t>
+  </si>
+  <si>
+    <t>Schools Management</t>
+  </si>
+  <si>
+    <t>โรงเรียน</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>CRUd</t>
   </si>
   <si>
     <t xml:space="preserve"> - Loyalty Fee History</t>
   </si>
   <si>
-    <t xml:space="preserve">ค่าธรรมเนียม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link from list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_loyalty_fee_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
+    <t>ค่าธรรมเนียม</t>
+  </si>
+  <si>
+    <t>Link from list</t>
+  </si>
+  <si>
+    <t>school_loyalty_fee_history</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
   <si>
     <t xml:space="preserve"> - Course </t>
   </si>
   <si>
-    <t xml:space="preserve">วิชาเปิดสอน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRd</t>
+    <t>วิชาเปิดสอน</t>
+  </si>
+  <si>
+    <t>school_courses</t>
+  </si>
+  <si>
+    <t>CRd</t>
   </si>
   <si>
     <t xml:space="preserve">   - Cost History</t>
   </si>
   <si>
-    <t xml:space="preserve">ราคาเรียกเก็บ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_course_cost_history</t>
+    <t>ราคาเรียกเก็บ</t>
+  </si>
+  <si>
+    <t>school_course_cost_history</t>
   </si>
   <si>
     <t xml:space="preserve">   - Sale Price History</t>
   </si>
   <si>
-    <t xml:space="preserve">ราคาเสนอขาย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_course_saleprice_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courses Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กลุ่มวิชา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courses Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วิชา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Users Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผู้ใช้</t>
-  </si>
-  <si>
-    <t xml:space="preserve">users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teachers Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อาจารย์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teachers</t>
+    <t>ราคาเสนอขาย</t>
+  </si>
+  <si>
+    <t>school_course_saleprice_history</t>
+  </si>
+  <si>
+    <t>Courses Category</t>
+  </si>
+  <si>
+    <t>กลุ่มวิชา</t>
+  </si>
+  <si>
+    <t>course_categories</t>
+  </si>
+  <si>
+    <t>Courses Management</t>
+  </si>
+  <si>
+    <t>วิชา</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>Users Management</t>
+  </si>
+  <si>
+    <t>ผู้ใช้</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>Teachers Management</t>
+  </si>
+  <si>
+    <t>อาจารย์</t>
+  </si>
+  <si>
+    <t>teachers</t>
   </si>
   <si>
     <t xml:space="preserve">Rd </t>
@@ -180,508 +180,508 @@
     <t xml:space="preserve"> - Courses</t>
   </si>
   <si>
-    <t xml:space="preserve">อนุมัติวิชาสอน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher_courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
+    <t>อนุมัติวิชาสอน</t>
+  </si>
+  <si>
+    <t>Sub-section</t>
+  </si>
+  <si>
+    <t>teacher_courses</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t xml:space="preserve">Report </t>
   </si>
   <si>
-    <t xml:space="preserve">รายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Page</t>
+    <t>รายงาน</t>
+  </si>
+  <si>
+    <t>User Page</t>
   </si>
   <si>
     <t xml:space="preserve"> - Profle </t>
   </si>
   <si>
-    <t xml:space="preserve">ข้อมูลส่วนตัว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Students Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">นักเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">students</t>
+    <t>ข้อมูลส่วนตัว</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Students Management</t>
+  </si>
+  <si>
+    <t>นักเรียน</t>
+  </si>
+  <si>
+    <t>students</t>
   </si>
   <si>
     <t xml:space="preserve"> - Course Subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">การลงทะเบียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscriptions</t>
+    <t>การลงทะเบียน</t>
+  </si>
+  <si>
+    <t>student_subscriptions</t>
   </si>
   <si>
     <t xml:space="preserve">   - Class Management</t>
   </si>
   <si>
-    <t xml:space="preserve">ตารางเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_classes</t>
+    <t>ตารางเรียน</t>
+  </si>
+  <si>
+    <t>student_subscription_classes</t>
   </si>
   <si>
     <t xml:space="preserve">   - Payment</t>
   </si>
   <si>
-    <t xml:space="preserve">การชำระเงิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_payments</t>
+    <t>การชำระเงิน</t>
+  </si>
+  <si>
+    <t>student_subscription_payments</t>
   </si>
   <si>
     <t xml:space="preserve">     - Payment Detail</t>
   </si>
   <si>
-    <t xml:space="preserve">รายละเอียดการชำระเงิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_payment_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วิชาสอน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rooms Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ห้องเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holidays Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันหยุด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holidays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nullable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ไอดี</t>
+    <t>รายละเอียดการชำระเงิน</t>
+  </si>
+  <si>
+    <t>student_subscription_payment_details</t>
+  </si>
+  <si>
+    <t>วิชาสอน</t>
+  </si>
+  <si>
+    <t>Rooms Management</t>
+  </si>
+  <si>
+    <t>ห้องเรียน</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Holidays Management</t>
+  </si>
+  <si>
+    <t>วันหยุด</t>
+  </si>
+  <si>
+    <t>holidays</t>
+  </si>
+  <si>
+    <t>Table:</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ไอดี</t>
   </si>
   <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
-    <t xml:space="preserve">not null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อผู้ใช้</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 8, max: 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รหัสผ่าน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcrypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 8, max: 16, &gt;=1 capital, &gt;=1 special, &gt;=1 numberic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">นามสกุล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อีเมล์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เบอร์ติดต่อ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to schools.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ตำแหน่ง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER (default), ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สถานะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVE (default), INACTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Built-in Columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated_at</t>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช้</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>min: 8, max: 16</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>bcrypt</t>
+  </si>
+  <si>
+    <t>min: 8, max: 16, &gt;=1 capital, &gt;=1 special, &gt;=1 numberic</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>not empty</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>อีเมล์</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>เบอร์ติดต่อ</t>
+  </si>
+  <si>
+    <t>school_id</t>
+  </si>
+  <si>
+    <t>Link to schools.id</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>ตำแหน่ง</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>USER (default), ADMIN</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>ACTIVE (default), INACTIVE</t>
+  </si>
+  <si>
+    <t>Built-in Columns</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
   <si>
     <t xml:space="preserve">increment </t>
   </si>
   <si>
-    <t xml:space="preserve">usercode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รหัส</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ที่อยู่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายละเอียด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
+    <t>usercode</t>
+  </si>
+  <si>
+    <t>รหัส</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
   <si>
     <t xml:space="preserve">not null </t>
   </si>
   <si>
-    <t xml:space="preserve">Link to schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effective_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันที่มีผล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loyalty_fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ค่าธรรมเนียม (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compound Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_id, course_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_courses_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to school_courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal(10, 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saleprice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ลำดับ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smallint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course_category_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จำนวนคาบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class_hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชั่งโมงเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30, 60, 90, ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_non_kawaii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ประเภท</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinyint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (default), 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard_cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ราคาเรียกเก็บมาตรฐาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard_saleprice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ราคาเสนอขายมาตรฐาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บัตรประชาชน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันเกิด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เพศ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALE (default), FEMALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">referrer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผู้ปกครอง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">referrer_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เบอร์ติดต่อผู้ปกครอง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายละเอียด/ประวัติ</t>
+    <t>Link to schools</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>วันที่มีผล</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>&gt;=now</t>
+  </si>
+  <si>
+    <t>loyalty_fee</t>
+  </si>
+  <si>
+    <t>ค่าธรรมเนียม (%)</t>
+  </si>
+  <si>
+    <t>min: 1, max: 100</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>Link to courses</t>
+  </si>
+  <si>
+    <t>Compound Index</t>
+  </si>
+  <si>
+    <t>school_id, course_id</t>
+  </si>
+  <si>
+    <t>school_courses_id</t>
+  </si>
+  <si>
+    <t>Link to school_courses</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>decimal(10, 2)</t>
+  </si>
+  <si>
+    <t>min: 0</t>
+  </si>
+  <si>
+    <t>saleprice</t>
+  </si>
+  <si>
+    <t>listorder</t>
+  </si>
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>course_category_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>total_classes</t>
+  </si>
+  <si>
+    <t>จำนวนคาบ</t>
+  </si>
+  <si>
+    <t>min: 1</t>
+  </si>
+  <si>
+    <t>class_hours</t>
+  </si>
+  <si>
+    <t>ชั่งโมงเรียน</t>
+  </si>
+  <si>
+    <t>30, 60, 90, ...</t>
+  </si>
+  <si>
+    <t>min: 30</t>
+  </si>
+  <si>
+    <t>is_non_kawaii</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>0 (default), 1</t>
+  </si>
+  <si>
+    <t>standard_cost</t>
+  </si>
+  <si>
+    <t>ราคาเรียกเก็บมาตรฐาน</t>
+  </si>
+  <si>
+    <t>standard_saleprice</t>
+  </si>
+  <si>
+    <t>ราคาเสนอขายมาตรฐาน</t>
+  </si>
+  <si>
+    <t>id_card</t>
+  </si>
+  <si>
+    <t>บัตรประชาชน</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>วันเกิด</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>เพศ</t>
+  </si>
+  <si>
+    <t>MALE (default), FEMALE</t>
+  </si>
+  <si>
+    <t>referrer_name</t>
+  </si>
+  <si>
+    <t>ผู้ปกครอง</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>referrer_phone</t>
+  </si>
+  <si>
+    <t>เบอร์ติดต่อผู้ปกครอง</t>
+  </si>
+  <si>
+    <t>รายละเอียด/ประวัติ</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVE (default), INACTIVE </t>
   </si>
   <si>
-    <t xml:space="preserve">MALE, FEMALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to teachers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อนุมัติ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVE , INACTIVE (default)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teacher_id, course_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ความจุ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">registration_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันที่ลงทะเบียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default(now)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_teacher_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_room_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MON, TUE, WED, THU, FRI, SAT, SUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เริ่ม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ราคา</t>
+    <t>MALE, FEMALE</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>Link to teachers</t>
+  </si>
+  <si>
+    <t>is_approved</t>
+  </si>
+  <si>
+    <t>อนุมัติ</t>
+  </si>
+  <si>
+    <t>ACTIVE , INACTIVE (default)</t>
+  </si>
+  <si>
+    <t>teacher_id, course_id</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>ความจุ</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>Link to students</t>
+  </si>
+  <si>
+    <t>registration_date</t>
+  </si>
+  <si>
+    <t>วันที่ลงทะเบียน</t>
+  </si>
+  <si>
+    <t>default(now)</t>
+  </si>
+  <si>
+    <t>main_teacher_id</t>
+  </si>
+  <si>
+    <t>main_room_id</t>
+  </si>
+  <si>
+    <t>Link to rooms</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>วันเรียน</t>
+  </si>
+  <si>
+    <t>MON, TUE, WED, THU, FRI, SAT, SUN</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>เริ่ม</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ราคา</t>
   </si>
   <si>
     <t xml:space="preserve">decimal(10, 2) </t>
@@ -690,77 +690,86 @@
     <t xml:space="preserve">varchar(10) </t>
   </si>
   <si>
-    <t xml:space="preserve">HELD (default), CANCELLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หมายเหตุ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to student_subscriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สิ้นสุด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันที่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่วนลด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_payment_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_subscription_class_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คาบเรียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holiday_date</t>
+    <t>HELD (default), CANCELLED</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>student_subscription_id</t>
+  </si>
+  <si>
+    <t>Link to student_subscriptions</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>สิ้นสุด</t>
+  </si>
+  <si>
+    <t>ref1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>ref2</t>
+  </si>
+  <si>
+    <t>payment_date</t>
+  </si>
+  <si>
+    <t>วันที่</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>ส่วนลด</t>
+  </si>
+  <si>
+    <t>student_subscription_payment_id</t>
+  </si>
+  <si>
+    <t>student_subscription_class_id</t>
+  </si>
+  <si>
+    <t>คาบเรียน</t>
+  </si>
+  <si>
+    <t>holiday_date</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -769,33 +778,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -810,7 +810,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -818,83 +818,328 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:AMI32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.91326530612245"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.39795918367347"/>
+    <col min="1" max="1" width="24.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1"/>
+    <col min="4" max="4" width="41.140625" style="1"/>
+    <col min="5" max="5" width="6.85546875" style="1"/>
+    <col min="6" max="1023" width="13.7109375" style="1"/>
+    <col min="1024" max="1025" width="9.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,14 +1156,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -927,7 +1172,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,10 +1182,10 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,10 +1195,10 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -963,10 +1208,10 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -983,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1102,7 +1347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1119,7 +1364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1136,7 +1381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1146,26 +1391,26 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1175,10 +1420,10 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,10 +1433,10 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1201,10 +1446,10 @@
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1238,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1255,7 +1500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1272,7 +1517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1289,7 +1534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1306,7 +1551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1323,7 +1568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1357,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -1375,10 +1620,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1387,49 +1631,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="16" style="1"/>
+    <col min="2" max="2" width="20.28515625" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="15.7109375" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1452,7 +1693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1471,9 +1712,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -1489,10 +1730,10 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1508,12 +1749,12 @@
       <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -1529,12 +1770,12 @@
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1544,12 +1785,12 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -1559,12 +1800,12 @@
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
@@ -1574,12 +1815,12 @@
       <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -1589,14 +1830,14 @@
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -1606,14 +1847,14 @@
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -1623,11 +1864,11 @@
       <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -1637,11 +1878,11 @@
       <c r="C14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
@@ -1651,11 +1892,11 @@
       <c r="C15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
@@ -1665,11 +1906,11 @@
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>134</v>
       </c>
@@ -1679,11 +1920,11 @@
       <c r="C17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>117</v>
       </c>
@@ -1700,17 +1941,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="C19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6">
+      <c r="A19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
@@ -1718,7 +1959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
@@ -1727,10 +1968,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1739,49 +1979,46 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="11.85546875" style="1"/>
+    <col min="2" max="2" width="16.42578125" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="15.7109375" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1804,7 +2041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1823,9 +2060,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -1841,10 +2078,10 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -1860,12 +2097,12 @@
       <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -1881,12 +2118,12 @@
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1896,11 +2133,11 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>176</v>
       </c>
@@ -1910,11 +2147,11 @@
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
@@ -1924,11 +2161,11 @@
       <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -1938,13 +2175,13 @@
       <c r="C11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="0"/>
+      <c r="D11"/>
       <c r="F11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -1954,13 +2191,13 @@
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="D12"/>
+      <c r="F12"/>
       <c r="G12" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -1970,10 +2207,10 @@
       <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="0"/>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -1983,10 +2220,10 @@
       <c r="C14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="0"/>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
@@ -1996,10 +2233,10 @@
       <c r="C15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="0"/>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -2016,17 +2253,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
+      <c r="A17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>121</v>
       </c>
@@ -2034,7 +2271,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
@@ -2043,10 +2280,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2055,49 +2291,46 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="18" style="1"/>
+    <col min="3" max="3" width="13.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="17.5703125" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2140,7 +2373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
@@ -2156,9 +2389,9 @@
       <c r="E5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -2174,9 +2407,9 @@
       <c r="E6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>194</v>
       </c>
@@ -2189,11 +2422,11 @@
       <c r="D7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -2210,38 +2443,38 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -2249,7 +2482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -2258,10 +2491,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2270,48 +2502,45 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="2" width="13.7109375" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="13.7109375" style="1"/>
+    <col min="5" max="5" width="15.7109375" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2334,7 +2563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2353,9 +2582,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -2371,10 +2600,10 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -2390,12 +2619,12 @@
       <c r="E6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>198</v>
       </c>
@@ -2408,12 +2637,12 @@
       <c r="D7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -2423,10 +2652,10 @@
       <c r="C8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
@@ -2443,17 +2672,17 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
+      <c r="A10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
@@ -2461,7 +2690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>123</v>
       </c>
@@ -2470,10 +2699,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2482,50 +2710,47 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="18.5703125" style="1"/>
+    <col min="2" max="2" width="23.42578125" style="1"/>
+    <col min="3" max="3" width="16.5703125" style="1"/>
+    <col min="4" max="4" width="13.7109375" style="1"/>
+    <col min="5" max="5" width="17.5703125" style="1"/>
+    <col min="6" max="6" width="40" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1"/>
+    <col min="8" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2548,7 +2773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2567,9 +2792,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
@@ -2585,10 +2810,10 @@
       <c r="E5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -2604,10 +2829,10 @@
       <c r="E6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
@@ -2626,9 +2851,9 @@
       <c r="F7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>205</v>
       </c>
@@ -2644,10 +2869,10 @@
       <c r="E8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>206</v>
       </c>
@@ -2663,10 +2888,10 @@
       <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>208</v>
       </c>
@@ -2682,9 +2907,9 @@
       <c r="F10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>211</v>
       </c>
@@ -2697,10 +2922,10 @@
       <c r="D11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>152</v>
       </c>
@@ -2713,10 +2938,10 @@
       <c r="D12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>155</v>
       </c>
@@ -2729,10 +2954,10 @@
       <c r="D13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -2748,9 +2973,9 @@
       <c r="F14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -2761,17 +2986,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
+      <c r="A16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -2779,7 +3004,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -2788,10 +3013,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2800,48 +3024,45 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.6224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="24.5703125" style="1"/>
+    <col min="2" max="2" width="28.5703125" style="1"/>
+    <col min="3" max="4" width="13.7109375" style="1"/>
+    <col min="5" max="6" width="30.7109375" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1"/>
+    <col min="8" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -2864,7 +3085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2884,7 +3105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -2900,9 +3121,9 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>221</v>
       </c>
@@ -2918,9 +3139,9 @@
       <c r="E6" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2936,9 +3157,9 @@
       <c r="E7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>223</v>
       </c>
@@ -2954,9 +3175,9 @@
       <c r="E8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
@@ -2972,9 +3193,9 @@
       <c r="E9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
@@ -2990,9 +3211,9 @@
       <c r="E10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +3230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -3020,17 +3241,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
+      <c r="A13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -3038,7 +3259,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>123</v>
       </c>
@@ -3047,10 +3268,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3059,50 +3279,47 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="25.42578125" style="1"/>
+    <col min="2" max="2" width="28.5703125" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="30.7109375" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="7" width="10.5703125" style="1"/>
+    <col min="8" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3125,7 +3342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,7 +3362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>221</v>
       </c>
@@ -3161,9 +3378,9 @@
       <c r="E5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>227</v>
       </c>
@@ -3173,11 +3390,11 @@
       <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>229</v>
       </c>
@@ -3187,11 +3404,11 @@
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>230</v>
       </c>
@@ -3211,7 +3428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>232</v>
       </c>
@@ -3224,9 +3441,9 @@
       <c r="D9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -3243,7 +3460,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>218</v>
       </c>
@@ -3254,17 +3471,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7">
+      <c r="A12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -3272,7 +3489,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -3281,10 +3498,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3293,45 +3509,42 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="30.140625" style="1"/>
+    <col min="2" max="2" width="34.42578125" style="1"/>
+    <col min="3" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3354,7 +3567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3374,7 +3587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>234</v>
       </c>
@@ -3388,7 +3601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>235</v>
       </c>
@@ -3402,17 +3615,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="C7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
+      <c r="A7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -3420,7 +3633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -3429,10 +3642,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3441,45 +3653,42 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="13.7142857142857"/>
+    <col min="1" max="4" width="13.7109375" style="1"/>
+    <col min="5" max="5" width="15.7109375" style="1"/>
+    <col min="6" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3502,7 +3711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3521,9 +3730,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -3539,9 +3748,9 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -3558,7 +3767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -3572,17 +3781,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -3590,7 +3799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -3599,10 +3808,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3611,50 +3819,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1"/>
+    <col min="3" max="3" width="13.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="18.5703125" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="7" width="58.28515625" style="1"/>
+    <col min="8" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3677,7 +3882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3696,9 +3901,9 @@
       <c r="F4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -3714,12 +3919,12 @@
       <c r="E5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5"/>
       <c r="G5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3732,7 +3937,7 @@
       <c r="D6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="0"/>
+      <c r="E6"/>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
@@ -3740,7 +3945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -3753,13 +3958,13 @@
       <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -3769,12 +3974,12 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -3784,14 +3989,14 @@
       <c r="C9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -3801,11 +4006,11 @@
       <c r="C10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -3815,13 +4020,13 @@
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="0"/>
+      <c r="D11"/>
       <c r="E11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -3838,7 +4043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -3855,17 +4060,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7">
+      <c r="A14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -3873,7 +4078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -3882,10 +4087,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3894,49 +4098,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="17" style="1"/>
+    <col min="2" max="2" width="11.140625" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="7" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -3958,8 +4159,17 @@
       <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3978,9 +4188,28 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+      <c r="H4" s="1" t="str">
+        <f>TRIM(PROPER(A4))</f>
+        <v>Id</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>"'"&amp;A4&amp;"'"</f>
+        <v>'id'</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"'"&amp;H4&amp;"',"</f>
+        <v>'Id',</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"'"&amp;B4&amp;"',"</f>
+        <v>'ไอดี',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
@@ -3996,12 +4225,31 @@
       <c r="E5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5"/>
       <c r="G5" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H11" si="0">TRIM(PROPER(A5))</f>
+        <v>Usercode</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"'"&amp;A5&amp;"'"</f>
+        <v>'usercode'</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K11" si="1">"'"&amp;H5&amp;"',"</f>
+        <v>'Usercode',</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L11" si="2">"'"&amp;B5&amp;"',"</f>
+        <v>'รหัส',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -4017,12 +4265,31 @@
       <c r="E6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="1" t="str">
+        <f>TRIM(PROPER(A6))</f>
+        <v>Name</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"'"&amp;A6&amp;"'"</f>
+        <v>'name'</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Name',</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'ชื่อ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -4032,13 +4299,32 @@
       <c r="C7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="D7"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contact_Email</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I9" si="3">"'"&amp;A7&amp;"'"</f>
+        <v>'contact_email'</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Contact_Email',</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'อีเมล์',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -4048,10 +4334,29 @@
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8"/>
+      <c r="F8"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contact_Phone</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'contact_phone'</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Contact_Phone',</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'เบอร์ติดต่อ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -4061,10 +4366,29 @@
       <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9"/>
+      <c r="F9"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Address</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'address'</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Address',</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'ที่อยู่',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -4074,10 +4398,29 @@
       <c r="C10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10"/>
+      <c r="F10"/>
+      <c r="H10" s="1" t="str">
+        <f>TRIM(PROPER(A10))</f>
+        <v>Description</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>"'"&amp;A10&amp;"'"</f>
+        <v>'description'</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>"'"&amp;H10&amp;"',"</f>
+        <v>'Description',</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>"'"&amp;B10&amp;"',"</f>
+        <v>'รายละเอียด',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -4093,18 +4436,37 @@
       <c r="F11" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Status</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>"'"&amp;A11&amp;"'"</f>
+        <v>'status'</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'Status',</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'สถานะ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -4112,7 +4474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
@@ -4121,10 +4483,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4133,50 +4494,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="16" style="1"/>
+    <col min="2" max="2" width="28.5703125" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="15.7109375" style="1"/>
+    <col min="6" max="6" width="13.7109375" style="1"/>
+    <col min="7" max="7" width="18.42578125" style="1"/>
+    <col min="8" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -4199,7 +4557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -4218,9 +4576,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -4236,10 +4594,10 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -4252,12 +4610,12 @@
       <c r="D6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
@@ -4274,17 +4632,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -4292,7 +4650,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -4301,10 +4659,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4313,49 +4670,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="11.28515625" style="1"/>
+    <col min="2" max="2" width="16.5703125" style="1"/>
+    <col min="3" max="3" width="13.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="16.140625" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -4378,7 +4732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -4398,7 +4752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -4414,9 +4768,9 @@
       <c r="E5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -4432,9 +4786,9 @@
       <c r="E6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -4451,38 +4805,38 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
@@ -4490,7 +4844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -4499,10 +4853,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4511,48 +4864,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="20.140625" style="1"/>
+    <col min="2" max="2" width="29.7109375" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="24.140625" style="1"/>
+    <col min="6" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -4575,7 +4925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -4594,9 +4944,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -4612,10 +4962,10 @@
       <c r="E5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -4632,7 +4982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -4649,17 +4999,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="C8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -4667,7 +5017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -4676,10 +5026,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4688,27 +5037,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col min="1" max="1" width="20.140625"/>
+    <col min="2" max="2" width="29.42578125"/>
+    <col min="3" max="3" width="15.5703125"/>
+    <col min="4" max="4" width="10.7109375"/>
+    <col min="5" max="5" width="26.28515625"/>
+    <col min="6" max="6" width="12.140625"/>
+    <col min="7" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -4720,7 +5066,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4728,7 +5074,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -4751,7 +5097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -4771,7 +5117,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -4789,7 +5135,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -4808,7 +5154,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
@@ -4827,14 +5173,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -4843,7 +5189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -4853,10 +5199,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4865,49 +5210,46 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="11.85546875" style="1"/>
+    <col min="2" max="2" width="20.140625" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="7" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -4930,7 +5272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -4949,9 +5291,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -4967,12 +5309,12 @@
       <c r="E5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5"/>
       <c r="G5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>134</v>
       </c>
@@ -4982,10 +5324,10 @@
       <c r="C6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -5002,7 +5344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -5013,17 +5355,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
+      <c r="A9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -5031,7 +5373,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -5040,10 +5382,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5052,49 +5393,46 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.9132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.7142857142857"/>
+    <col min="1" max="1" width="20.7109375" style="1"/>
+    <col min="2" max="2" width="19.28515625" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="1"/>
+    <col min="5" max="5" width="7" style="1"/>
+    <col min="6" max="6" width="29.85546875" style="1"/>
+    <col min="7" max="1025" width="13.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -5117,7 +5455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -5136,9 +5474,9 @@
       <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -5151,11 +5489,11 @@
       <c r="D5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -5171,12 +5509,12 @@
       <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6"/>
       <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -5192,12 +5530,12 @@
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7"/>
       <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -5210,12 +5548,12 @@
       <c r="D8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8"/>
       <c r="G8" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>164</v>
       </c>
@@ -5235,7 +5573,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>168</v>
       </c>
@@ -5252,7 +5590,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -5266,7 +5604,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
@@ -5280,7 +5618,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -5290,10 +5628,10 @@
       <c r="C13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="0"/>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -5310,7 +5648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>156</v>
       </c>
@@ -5321,17 +5659,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
+      <c r="A16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -5339,7 +5677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -5348,10 +5686,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
